--- a/public/templates/opl2.xlsx
+++ b/public/templates/opl2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Soft\openserv\OpenServer\domains\telegram.gaz\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF4531A-86C8-49E4-A211-FFF17F2A9DA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AEF941-B9EC-4D88-BD53-A5F29F48E85F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6765" yWindow="2070" windowWidth="13050" windowHeight="11835" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -159,9 +159,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
@@ -827,94 +824,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -930,9 +843,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -941,9 +851,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -955,15 +862,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -979,61 +877,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1048,19 +892,91 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1069,17 +985,98 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1519,7 +1516,7 @@
   <dimension ref="A2:AB38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="95" workbookViewId="0">
-      <selection activeCell="AA23" sqref="AA23"/>
+      <selection activeCell="Z24" sqref="Z24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1545,1198 +1542,1173 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:28" ht="11.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
     </row>
     <row r="3" spans="1:28" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="92"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="33"/>
     </row>
     <row r="4" spans="1:28" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="35"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="7"/>
     </row>
     <row r="5" spans="1:28" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="35"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="7"/>
     </row>
     <row r="6" spans="1:28" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="90" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="V6" s="90"/>
-      <c r="W6" s="90"/>
-      <c r="X6" s="90"/>
-      <c r="Y6" s="90"/>
-      <c r="Z6" s="90"/>
-      <c r="AA6" s="91"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="59"/>
+      <c r="Z6" s="59"/>
+      <c r="AA6" s="60"/>
     </row>
     <row r="7" spans="1:28" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="35"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="7"/>
     </row>
     <row r="8" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="6" t="s">
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="78"/>
+      <c r="N8" s="78"/>
+      <c r="O8" s="78"/>
+      <c r="P8" s="78"/>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="78"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="88" t="s">
+      <c r="V8" s="64"/>
+      <c r="W8" s="64"/>
+      <c r="X8" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="Y8" s="88"/>
-      <c r="Z8" s="88"/>
-      <c r="AA8" s="89"/>
+      <c r="Y8" s="61"/>
+      <c r="Z8" s="61"/>
+      <c r="AA8" s="62"/>
     </row>
     <row r="9" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="9" t="s">
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="80"/>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="80"/>
+      <c r="S9" s="80"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="10" t="s">
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="89"/>
+      <c r="Y9" s="63"/>
+      <c r="Z9" s="63"/>
+      <c r="AA9" s="62"/>
     </row>
     <row r="10" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="10" t="s">
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="89"/>
+      <c r="Y10" s="63"/>
+      <c r="Z10" s="63"/>
+      <c r="AA10" s="62"/>
     </row>
     <row r="11" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="9" t="s">
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="78"/>
+      <c r="P11" s="78"/>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="78"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="10" t="s">
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="89"/>
+      <c r="Y11" s="63"/>
+      <c r="Z11" s="63"/>
+      <c r="AA11" s="62"/>
     </row>
     <row r="12" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
-      <c r="B12" s="13" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12" t="s">
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="78"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="10" t="s">
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="89"/>
+      <c r="Y12" s="63"/>
+      <c r="Z12" s="63"/>
+      <c r="AA12" s="62"/>
     </row>
     <row r="13" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
-      <c r="B13" s="13" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="35"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="78"/>
+      <c r="N13" s="78"/>
+      <c r="O13" s="78"/>
+      <c r="P13" s="78"/>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="78"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="7"/>
     </row>
     <row r="14" spans="1:28" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="40"/>
-      <c r="W14" s="40"/>
-      <c r="X14" s="40"/>
-      <c r="Y14" s="40"/>
-      <c r="Z14" s="40"/>
-      <c r="AA14" s="87"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="32"/>
     </row>
     <row r="15" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
-      <c r="B15" s="14" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="16" t="s">
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="82"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="83"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="46"/>
+      <c r="X15" s="46"/>
+      <c r="Y15" s="46"/>
+      <c r="Z15" s="46"/>
+      <c r="AA15" s="47"/>
       <c r="AB15" s="2"/>
     </row>
     <row r="16" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="17" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="48"/>
-      <c r="U16" s="19" t="s">
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="84"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="53"/>
+      <c r="Z16" s="53"/>
+      <c r="AA16" s="54"/>
     </row>
     <row r="17" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="48"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="20"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="84"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="53"/>
+      <c r="W17" s="53"/>
+      <c r="X17" s="53"/>
+      <c r="Y17" s="53"/>
+      <c r="Z17" s="53"/>
+      <c r="AA17" s="54"/>
     </row>
     <row r="18" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="20"/>
-      <c r="W18" s="20"/>
-      <c r="X18" s="20"/>
-      <c r="Y18" s="20"/>
-      <c r="Z18" s="20"/>
-      <c r="AA18" s="84"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="53"/>
+      <c r="W18" s="53"/>
+      <c r="X18" s="53"/>
+      <c r="Y18" s="53"/>
+      <c r="Z18" s="53"/>
+      <c r="AA18" s="54"/>
     </row>
     <row r="19" spans="1:28" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="24"/>
-      <c r="Z19" s="24"/>
-      <c r="AA19" s="85"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="51"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="55"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="56"/>
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="56"/>
+      <c r="AA19" s="57"/>
     </row>
     <row r="20" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="58" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="66" t="s">
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="55"/>
-      <c r="T20" s="48"/>
-      <c r="U20" s="63" t="s">
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="66"/>
+      <c r="R20" s="67"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="V20" s="64"/>
-      <c r="W20" s="64"/>
-      <c r="X20" s="64"/>
-      <c r="Y20" s="64"/>
-      <c r="Z20" s="64"/>
-      <c r="AA20" s="65"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="38"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="38"/>
+      <c r="AA20" s="39"/>
       <c r="AB20" s="2"/>
     </row>
     <row r="21" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="27" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="29" t="s">
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="55"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="30" t="s">
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="69"/>
+      <c r="P21" s="69"/>
+      <c r="Q21" s="69"/>
+      <c r="R21" s="70"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="V21" s="31"/>
-      <c r="W21" s="31"/>
-      <c r="X21" s="31"/>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="31"/>
-      <c r="AA21" s="86"/>
+      <c r="V21" s="74"/>
+      <c r="W21" s="74"/>
+      <c r="X21" s="74"/>
+      <c r="Y21" s="74"/>
+      <c r="Z21" s="74"/>
+      <c r="AA21" s="75"/>
       <c r="AB21" s="2"/>
     </row>
     <row r="22" spans="1:28" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="49"/>
-      <c r="S22" s="49"/>
-      <c r="T22" s="49"/>
-      <c r="U22" s="49"/>
-      <c r="V22" s="49"/>
-      <c r="W22" s="49"/>
-      <c r="X22" s="49"/>
-      <c r="Y22" s="49"/>
-      <c r="Z22" s="49"/>
-      <c r="AA22" s="80"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="19"/>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="29"/>
     </row>
     <row r="23" spans="1:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="68" t="s">
+      <c r="A23" s="7"/>
+      <c r="B23" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="69"/>
-      <c r="D23" s="72" t="s">
+      <c r="C23" s="41"/>
+      <c r="D23" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="72" t="s">
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="70"/>
-      <c r="N23" s="70"/>
-      <c r="O23" s="70"/>
-      <c r="P23" s="70"/>
-      <c r="Q23" s="70"/>
-      <c r="R23" s="70"/>
-      <c r="S23" s="70"/>
-      <c r="T23" s="71"/>
-      <c r="U23" s="72" t="s">
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="V23" s="70"/>
-      <c r="W23" s="71"/>
-      <c r="X23" s="72" t="s">
+      <c r="V23" s="43"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="Y23" s="71"/>
-      <c r="Z23" s="74" t="s">
+      <c r="Y23" s="44"/>
+      <c r="Z23" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="AA23" s="81" t="s">
+      <c r="AA23" s="30" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:28" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="59" t="s">
+      <c r="A24" s="6"/>
+      <c r="B24" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="60"/>
-      <c r="D24" s="50" t="s">
+      <c r="C24" s="88"/>
+      <c r="D24" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50" t="s">
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="50"/>
-      <c r="T24" s="50"/>
-      <c r="U24" s="51" t="s">
+      <c r="I24" s="89"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="89"/>
+      <c r="M24" s="89"/>
+      <c r="N24" s="89"/>
+      <c r="O24" s="89"/>
+      <c r="P24" s="89"/>
+      <c r="Q24" s="89"/>
+      <c r="R24" s="89"/>
+      <c r="S24" s="89"/>
+      <c r="T24" s="89"/>
+      <c r="U24" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="V24" s="51"/>
-      <c r="W24" s="67"/>
-      <c r="X24" s="73" t="s">
+      <c r="V24" s="90"/>
+      <c r="W24" s="91"/>
+      <c r="X24" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="Y24" s="67"/>
-      <c r="Z24" s="75" t="s">
+      <c r="Y24" s="91"/>
+      <c r="Z24" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="AA24" s="82" t="s">
+      <c r="AA24" s="31" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="32" t="s">
+      <c r="A25" s="7"/>
+      <c r="B25" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="33"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="33"/>
-      <c r="Z25" s="33"/>
-      <c r="AA25" s="34"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="84"/>
+      <c r="L25" s="84"/>
+      <c r="M25" s="84"/>
+      <c r="N25" s="84"/>
+      <c r="O25" s="84"/>
+      <c r="P25" s="84"/>
+      <c r="Q25" s="84"/>
+      <c r="R25" s="84"/>
+      <c r="S25" s="84"/>
+      <c r="T25" s="84"/>
+      <c r="U25" s="84"/>
+      <c r="V25" s="84"/>
+      <c r="W25" s="84"/>
+      <c r="X25" s="84"/>
+      <c r="Y25" s="84"/>
+      <c r="Z25" s="84"/>
+      <c r="AA25" s="85"/>
     </row>
     <row r="26" spans="1:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="52" t="s">
+      <c r="A26" s="7"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="V26" s="52"/>
-      <c r="W26" s="52"/>
-      <c r="X26" s="52"/>
-      <c r="Y26" s="52"/>
-      <c r="Z26" s="52"/>
-      <c r="AA26" s="93" t="s">
+      <c r="V26" s="86"/>
+      <c r="W26" s="86"/>
+      <c r="X26" s="86"/>
+      <c r="Y26" s="86"/>
+      <c r="Z26" s="86"/>
+      <c r="AA26" s="34" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="61"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="36"/>
-      <c r="V27" s="36"/>
-      <c r="W27" s="36"/>
-      <c r="X27" s="36"/>
-      <c r="Y27" s="36"/>
-      <c r="Z27" s="36"/>
-      <c r="AA27" s="77"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="26"/>
     </row>
     <row r="28" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
-      <c r="L28" s="61"/>
-      <c r="M28" s="61"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="36"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="36"/>
-      <c r="W28" s="36"/>
-      <c r="X28" s="36"/>
-      <c r="Y28" s="36"/>
-      <c r="Z28" s="36"/>
-      <c r="AA28" s="78"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="27"/>
     </row>
     <row r="29" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="61"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="12"/>
-      <c r="W29" s="12"/>
-      <c r="X29" s="12"/>
-      <c r="Y29" s="12"/>
-      <c r="Z29" s="12"/>
-      <c r="AA29" s="35"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="7"/>
     </row>
     <row r="30" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="61"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="61"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="37"/>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="37"/>
-      <c r="S30" s="37"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="12"/>
-      <c r="W30" s="12"/>
-      <c r="X30" s="12"/>
-      <c r="Y30" s="12"/>
-      <c r="Z30" s="12"/>
-      <c r="AA30" s="35"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="7"/>
     </row>
     <row r="31" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="61"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="37"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="12"/>
-      <c r="W31" s="12"/>
-      <c r="X31" s="12"/>
-      <c r="Y31" s="12"/>
-      <c r="Z31" s="12"/>
-      <c r="AA31" s="35"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="7"/>
     </row>
     <row r="32" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="35"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="61"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="37"/>
-      <c r="T32" s="11"/>
-      <c r="U32" s="11"/>
-      <c r="V32" s="12"/>
-      <c r="W32" s="12"/>
-      <c r="X32" s="12"/>
-      <c r="Y32" s="12"/>
-      <c r="Z32" s="12"/>
-      <c r="AA32" s="35"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="7"/>
     </row>
     <row r="33" spans="1:27" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="35"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="61"/>
-      <c r="M33" s="61"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="36"/>
-      <c r="S33" s="36"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11"/>
-      <c r="V33" s="12"/>
-      <c r="W33" s="12"/>
-      <c r="X33" s="12"/>
-      <c r="Y33" s="12"/>
-      <c r="Z33" s="12"/>
-      <c r="AA33" s="35"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="7"/>
     </row>
     <row r="34" spans="1:27" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="35"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="61"/>
-      <c r="L34" s="61"/>
-      <c r="M34" s="61"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="36"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="36"/>
-      <c r="S34" s="36"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="11"/>
-      <c r="V34" s="12"/>
-      <c r="W34" s="12"/>
-      <c r="X34" s="12"/>
-      <c r="Y34" s="12"/>
-      <c r="Z34" s="12"/>
-      <c r="AA34" s="35"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="7"/>
     </row>
     <row r="35" spans="1:27" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="35"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="61"/>
-      <c r="L35" s="61"/>
-      <c r="M35" s="61"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="62" t="s">
+      <c r="A35" s="7"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="Q35" s="62"/>
-      <c r="R35" s="62"/>
-      <c r="S35" s="62"/>
-      <c r="T35" s="62"/>
-      <c r="U35" s="62"/>
-      <c r="V35" s="62"/>
-      <c r="W35" s="62"/>
-      <c r="X35" s="62"/>
-      <c r="Y35" s="62"/>
-      <c r="Z35" s="62"/>
-      <c r="AA35" s="35"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="36"/>
+      <c r="X35" s="36"/>
+      <c r="Y35" s="36"/>
+      <c r="Z35" s="36"/>
+      <c r="AA35" s="7"/>
     </row>
     <row r="36" spans="1:27" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="35"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="39"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="40"/>
-      <c r="S36" s="40"/>
-      <c r="T36" s="40"/>
-      <c r="U36" s="39"/>
-      <c r="V36" s="39"/>
-      <c r="W36" s="39"/>
-      <c r="X36" s="39"/>
-      <c r="Y36" s="39"/>
-      <c r="Z36" s="39"/>
-      <c r="AA36" s="79"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="28"/>
     </row>
     <row r="37" spans="1:27" s="3" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="54"/>
-      <c r="B37" s="41" t="s">
+      <c r="A37" s="21"/>
+      <c r="B37" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
-      <c r="O37" s="41"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="41"/>
-      <c r="S37" s="41"/>
-      <c r="T37" s="41"/>
-      <c r="U37" s="41"/>
-      <c r="V37" s="41"/>
-      <c r="W37" s="41"/>
-      <c r="X37" s="41"/>
-      <c r="Y37" s="41"/>
-      <c r="Z37" s="41"/>
-      <c r="AA37" s="76"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="76"/>
+      <c r="J37" s="76"/>
+      <c r="K37" s="76"/>
+      <c r="L37" s="76"/>
+      <c r="M37" s="76"/>
+      <c r="N37" s="76"/>
+      <c r="O37" s="76"/>
+      <c r="P37" s="76"/>
+      <c r="Q37" s="76"/>
+      <c r="R37" s="76"/>
+      <c r="S37" s="76"/>
+      <c r="T37" s="76"/>
+      <c r="U37" s="76"/>
+      <c r="V37" s="76"/>
+      <c r="W37" s="76"/>
+      <c r="X37" s="76"/>
+      <c r="Y37" s="76"/>
+      <c r="Z37" s="76"/>
+      <c r="AA37" s="77"/>
     </row>
     <row r="38" spans="1:27" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="12"/>
-      <c r="S38" s="12"/>
-      <c r="T38" s="12"/>
-      <c r="U38" s="12"/>
-      <c r="V38" s="12"/>
-      <c r="W38" s="12"/>
-      <c r="X38" s="12"/>
-      <c r="Y38" s="12"/>
-      <c r="Z38" s="12"/>
-      <c r="AA38" s="12"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="6"/>
+      <c r="AA38" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C27:M35"/>
-    <mergeCell ref="P35:Z35"/>
-    <mergeCell ref="U20:AA20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="H23:T23"/>
-    <mergeCell ref="U23:W23"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="U15:AA15"/>
-    <mergeCell ref="B16:R19"/>
-    <mergeCell ref="U16:AA19"/>
-    <mergeCell ref="U11:W11"/>
-    <mergeCell ref="U6:AA6"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="H20:R20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="H21:R21"/>
-    <mergeCell ref="C4:R6"/>
-    <mergeCell ref="U21:AA21"/>
     <mergeCell ref="B37:AA37"/>
     <mergeCell ref="B8:R8"/>
     <mergeCell ref="B9:S9"/>
@@ -2752,6 +2724,31 @@
     <mergeCell ref="H24:T24"/>
     <mergeCell ref="U24:W24"/>
     <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="U15:AA15"/>
+    <mergeCell ref="B16:R19"/>
+    <mergeCell ref="U16:AA19"/>
+    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="U6:AA6"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="C4:R6"/>
+    <mergeCell ref="C27:M35"/>
+    <mergeCell ref="P35:Z35"/>
+    <mergeCell ref="U20:AA20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="H23:T23"/>
+    <mergeCell ref="U23:W23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="H20:R20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="H21:R21"/>
+    <mergeCell ref="U21:AA21"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>

--- a/public/templates/opl2.xlsx
+++ b/public/templates/opl2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Soft\openserv\OpenServer\domains\telegram.gaz\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AEF941-B9EC-4D88-BD53-A5F29F48E85F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B298BD68-69EB-499A-8E32-2FA08B34F641}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6765" yWindow="2070" windowWidth="13050" windowHeight="11835" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>Reference :</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>S/B number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invoice: </t>
+  </si>
+  <si>
+    <t>{number}</t>
   </si>
 </sst>
 </file>
@@ -216,7 +222,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -254,15 +260,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -811,12 +808,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -829,18 +826,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -853,13 +850,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -868,38 +865,47 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -907,176 +913,173 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1145,13 +1148,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>30241</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>87379</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1513,10 +1516,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AB38"/>
+  <dimension ref="A2:AB39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="95" workbookViewId="0">
-      <selection activeCell="Z24" sqref="Z24"/>
+    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="AD12" sqref="AD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1602,22 +1605,22 @@
     <row r="4" spans="1:28" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="15"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
@@ -1631,22 +1634,22 @@
     <row r="5" spans="1:28" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="15"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
@@ -1660,35 +1663,35 @@
     <row r="6" spans="1:28" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="74"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
-      <c r="U6" s="59" t="s">
+      <c r="U6" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="60"/>
-    </row>
-    <row r="7" spans="1:28" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V6" s="69"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="69"/>
+      <c r="Y6" s="69"/>
+      <c r="Z6" s="69"/>
+      <c r="AA6" s="70"/>
+    </row>
+    <row r="7" spans="1:28" s="1" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
@@ -1717,693 +1720,660 @@
       <c r="Z7" s="6"/>
       <c r="AA7" s="7"/>
     </row>
-    <row r="8" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="78"/>
-      <c r="N8" s="78"/>
-      <c r="O8" s="78"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="78"/>
-      <c r="R8" s="78"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="V8" s="64"/>
-      <c r="W8" s="64"/>
-      <c r="X8" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y8" s="61"/>
-      <c r="Z8" s="61"/>
-      <c r="AA8" s="62"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
+      <c r="Q8" s="94"/>
+      <c r="R8" s="94"/>
+      <c r="S8" s="94"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="75" t="s">
+        <v>43</v>
+      </c>
+      <c r="V8" s="75"/>
+      <c r="W8" s="75"/>
+      <c r="X8" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y8" s="75"/>
+      <c r="Z8" s="75"/>
+      <c r="AA8" s="76"/>
     </row>
     <row r="9" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="79" t="s">
+      <c r="C9" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="80"/>
-      <c r="O9" s="80"/>
-      <c r="P9" s="80"/>
-      <c r="Q9" s="80"/>
-      <c r="R9" s="80"/>
-      <c r="S9" s="80"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="63" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y9" s="63"/>
-      <c r="Z9" s="63"/>
-      <c r="AA9" s="62"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="95"/>
+      <c r="Q9" s="95"/>
+      <c r="R9" s="95"/>
+      <c r="S9" s="95"/>
+      <c r="T9" s="95"/>
+      <c r="U9" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="V9" s="73"/>
+      <c r="W9" s="73"/>
+      <c r="X9" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y9" s="71"/>
+      <c r="Z9" s="71"/>
+      <c r="AA9" s="72"/>
     </row>
     <row r="10" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y10" s="63"/>
-      <c r="Z10" s="63"/>
-      <c r="AA10" s="62"/>
+      <c r="C10" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="93"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="93"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="93"/>
+      <c r="R10" s="93"/>
+      <c r="S10" s="93"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="V10" s="68"/>
+      <c r="W10" s="68"/>
+      <c r="X10" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y10" s="71"/>
+      <c r="Z10" s="71"/>
+      <c r="AA10" s="72"/>
     </row>
     <row r="11" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="78"/>
-      <c r="O11" s="78"/>
-      <c r="P11" s="78"/>
-      <c r="Q11" s="78"/>
-      <c r="R11" s="78"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="V11" s="58"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y11" s="63"/>
-      <c r="Z11" s="63"/>
-      <c r="AA11" s="62"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="93" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="93"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="93"/>
+      <c r="R11" s="93"/>
+      <c r="S11" s="93"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y11" s="71"/>
+      <c r="Z11" s="71"/>
+      <c r="AA11" s="72"/>
     </row>
     <row r="12" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="81" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="78"/>
-      <c r="L12" s="78"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="78"/>
-      <c r="O12" s="78"/>
-      <c r="P12" s="78"/>
-      <c r="Q12" s="78"/>
-      <c r="R12" s="78"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="63" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y12" s="63"/>
-      <c r="Z12" s="63"/>
-      <c r="AA12" s="62"/>
+      <c r="C12" s="93" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="93"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="93"/>
+      <c r="R12" s="93"/>
+      <c r="S12" s="93"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="V12" s="68"/>
+      <c r="W12" s="68"/>
+      <c r="X12" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y12" s="71"/>
+      <c r="Z12" s="71"/>
+      <c r="AA12" s="72"/>
     </row>
     <row r="13" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="81" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="78"/>
-      <c r="M13" s="78"/>
-      <c r="N13" s="78"/>
-      <c r="O13" s="78"/>
-      <c r="P13" s="78"/>
-      <c r="Q13" s="78"/>
-      <c r="R13" s="78"/>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="7"/>
-    </row>
-    <row r="14" spans="1:28" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U13" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="V13" s="35"/>
+      <c r="W13" s="35"/>
+      <c r="X13" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y13" s="71"/>
+      <c r="Z13" s="71"/>
+      <c r="AA13" s="72"/>
+    </row>
+    <row r="14" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="32"/>
-    </row>
-    <row r="15" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U14" s="35"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="35"/>
+      <c r="AA14" s="7"/>
+    </row>
+    <row r="15" spans="1:28" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="17"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="32"/>
+    </row>
+    <row r="16" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="82"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="V15" s="46"/>
-      <c r="W15" s="46"/>
-      <c r="X15" s="46"/>
-      <c r="Y15" s="46"/>
-      <c r="Z15" s="46"/>
-      <c r="AA15" s="47"/>
-      <c r="AB15" s="2"/>
-    </row>
-    <row r="16" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="49"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="79"/>
       <c r="S16" s="6"/>
       <c r="T16" s="18"/>
-      <c r="U16" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="V16" s="53"/>
-      <c r="W16" s="53"/>
-      <c r="X16" s="53"/>
-      <c r="Y16" s="53"/>
-      <c r="Z16" s="53"/>
-      <c r="AA16" s="54"/>
+      <c r="U16" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="V16" s="91"/>
+      <c r="W16" s="91"/>
+      <c r="X16" s="91"/>
+      <c r="Y16" s="91"/>
+      <c r="Z16" s="91"/>
+      <c r="AA16" s="92"/>
+      <c r="AB16" s="2"/>
     </row>
     <row r="17" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="49"/>
+      <c r="B17" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="58"/>
+      <c r="Q17" s="58"/>
+      <c r="R17" s="59"/>
       <c r="S17" s="6"/>
       <c r="T17" s="18"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="53"/>
-      <c r="W17" s="53"/>
-      <c r="X17" s="53"/>
-      <c r="Y17" s="53"/>
-      <c r="Z17" s="53"/>
-      <c r="AA17" s="54"/>
+      <c r="U17" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="V17" s="63"/>
+      <c r="W17" s="63"/>
+      <c r="X17" s="63"/>
+      <c r="Y17" s="63"/>
+      <c r="Z17" s="63"/>
+      <c r="AA17" s="64"/>
     </row>
     <row r="18" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="49"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="58"/>
+      <c r="R18" s="59"/>
       <c r="S18" s="6"/>
       <c r="T18" s="18"/>
-      <c r="U18" s="52"/>
-      <c r="V18" s="53"/>
-      <c r="W18" s="53"/>
-      <c r="X18" s="53"/>
-      <c r="Y18" s="53"/>
-      <c r="Z18" s="53"/>
-      <c r="AA18" s="54"/>
-    </row>
-    <row r="19" spans="1:28" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U18" s="62"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="63"/>
+      <c r="X18" s="63"/>
+      <c r="Y18" s="63"/>
+      <c r="Z18" s="63"/>
+      <c r="AA18" s="64"/>
+    </row>
+    <row r="19" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="50"/>
-      <c r="R19" s="51"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="58"/>
+      <c r="R19" s="59"/>
       <c r="S19" s="6"/>
       <c r="T19" s="18"/>
-      <c r="U19" s="55"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="56"/>
-      <c r="AA19" s="57"/>
-    </row>
-    <row r="20" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U19" s="62"/>
+      <c r="V19" s="63"/>
+      <c r="W19" s="63"/>
+      <c r="X19" s="63"/>
+      <c r="Y19" s="63"/>
+      <c r="Z19" s="63"/>
+      <c r="AA19" s="64"/>
+    </row>
+    <row r="20" spans="1:28" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
-      <c r="B20" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="67"/>
-      <c r="S20" s="22"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="60"/>
+      <c r="Q20" s="60"/>
+      <c r="R20" s="61"/>
+      <c r="S20" s="6"/>
       <c r="T20" s="18"/>
-      <c r="U20" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="V20" s="38"/>
-      <c r="W20" s="38"/>
-      <c r="X20" s="38"/>
-      <c r="Y20" s="38"/>
-      <c r="Z20" s="38"/>
-      <c r="AA20" s="39"/>
-      <c r="AB20" s="2"/>
+      <c r="U20" s="65"/>
+      <c r="V20" s="66"/>
+      <c r="W20" s="66"/>
+      <c r="X20" s="66"/>
+      <c r="Y20" s="66"/>
+      <c r="Z20" s="66"/>
+      <c r="AA20" s="67"/>
     </row>
     <row r="21" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
-      <c r="B21" s="69" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="69"/>
-      <c r="O21" s="69"/>
-      <c r="P21" s="69"/>
-      <c r="Q21" s="69"/>
-      <c r="R21" s="70"/>
+      <c r="B21" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="50"/>
       <c r="S21" s="22"/>
       <c r="T21" s="18"/>
-      <c r="U21" s="73" t="s">
+      <c r="U21" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="V21" s="41"/>
+      <c r="W21" s="41"/>
+      <c r="X21" s="41"/>
+      <c r="Y21" s="41"/>
+      <c r="Z21" s="41"/>
+      <c r="AA21" s="42"/>
+      <c r="AB21" s="2"/>
+    </row>
+    <row r="22" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="V21" s="74"/>
-      <c r="W21" s="74"/>
-      <c r="X21" s="74"/>
-      <c r="Y21" s="74"/>
-      <c r="Z21" s="74"/>
-      <c r="AA21" s="75"/>
-      <c r="AB21" s="2"/>
-    </row>
-    <row r="22" spans="1:28" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="19"/>
-      <c r="X22" s="19"/>
-      <c r="Y22" s="19"/>
-      <c r="Z22" s="19"/>
-      <c r="AA22" s="29"/>
-    </row>
-    <row r="23" spans="1:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="40" t="s">
+      <c r="V22" s="56"/>
+      <c r="W22" s="56"/>
+      <c r="X22" s="56"/>
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="56"/>
+      <c r="AA22" s="57"/>
+      <c r="AB22" s="2"/>
+    </row>
+    <row r="23" spans="1:28" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="19"/>
+      <c r="X23" s="19"/>
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="19"/>
+      <c r="AA23" s="29"/>
+    </row>
+    <row r="24" spans="1:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="42" t="s">
+      <c r="C24" s="44"/>
+      <c r="D24" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="42" t="s">
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="43"/>
-      <c r="S23" s="43"/>
-      <c r="T23" s="44"/>
-      <c r="U23" s="42" t="s">
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="46"/>
+      <c r="R24" s="46"/>
+      <c r="S24" s="46"/>
+      <c r="T24" s="47"/>
+      <c r="U24" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="V23" s="43"/>
-      <c r="W23" s="44"/>
-      <c r="X23" s="42" t="s">
+      <c r="V24" s="46"/>
+      <c r="W24" s="47"/>
+      <c r="X24" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="Y23" s="44"/>
-      <c r="Z23" s="25" t="s">
+      <c r="Y24" s="47"/>
+      <c r="Z24" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="AA23" s="30" t="s">
+      <c r="AA24" s="30" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:28" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="87" t="s">
+    <row r="25" spans="1:28" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="88"/>
-      <c r="D24" s="89" t="s">
+      <c r="C25" s="85"/>
+      <c r="D25" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89" t="s">
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="I24" s="89"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="89"/>
-      <c r="L24" s="89"/>
-      <c r="M24" s="89"/>
-      <c r="N24" s="89"/>
-      <c r="O24" s="89"/>
-      <c r="P24" s="89"/>
-      <c r="Q24" s="89"/>
-      <c r="R24" s="89"/>
-      <c r="S24" s="89"/>
-      <c r="T24" s="89"/>
-      <c r="U24" s="90" t="s">
+      <c r="I25" s="86"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="86"/>
+      <c r="P25" s="86"/>
+      <c r="Q25" s="86"/>
+      <c r="R25" s="86"/>
+      <c r="S25" s="86"/>
+      <c r="T25" s="86"/>
+      <c r="U25" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="V24" s="90"/>
-      <c r="W24" s="91"/>
-      <c r="X24" s="92" t="s">
+      <c r="V25" s="87"/>
+      <c r="W25" s="88"/>
+      <c r="X25" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="Y24" s="91"/>
-      <c r="Z24" s="93" t="s">
+      <c r="Y25" s="88"/>
+      <c r="Z25" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="AA24" s="31" t="s">
+      <c r="AA25" s="31" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="83" t="s">
+    <row r="26" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="84"/>
-      <c r="K25" s="84"/>
-      <c r="L25" s="84"/>
-      <c r="M25" s="84"/>
-      <c r="N25" s="84"/>
-      <c r="O25" s="84"/>
-      <c r="P25" s="84"/>
-      <c r="Q25" s="84"/>
-      <c r="R25" s="84"/>
-      <c r="S25" s="84"/>
-      <c r="T25" s="84"/>
-      <c r="U25" s="84"/>
-      <c r="V25" s="84"/>
-      <c r="W25" s="84"/>
-      <c r="X25" s="84"/>
-      <c r="Y25" s="84"/>
-      <c r="Z25" s="84"/>
-      <c r="AA25" s="85"/>
-    </row>
-    <row r="26" spans="1:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="86" t="s">
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="81"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="81"/>
+      <c r="N26" s="81"/>
+      <c r="O26" s="81"/>
+      <c r="P26" s="81"/>
+      <c r="Q26" s="81"/>
+      <c r="R26" s="81"/>
+      <c r="S26" s="81"/>
+      <c r="T26" s="81"/>
+      <c r="U26" s="81"/>
+      <c r="V26" s="81"/>
+      <c r="W26" s="81"/>
+      <c r="X26" s="81"/>
+      <c r="Y26" s="81"/>
+      <c r="Z26" s="81"/>
+      <c r="AA26" s="82"/>
+    </row>
+    <row r="27" spans="1:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="V26" s="86"/>
-      <c r="W26" s="86"/>
-      <c r="X26" s="86"/>
-      <c r="Y26" s="86"/>
-      <c r="Z26" s="86"/>
-      <c r="AA26" s="34" t="s">
+      <c r="V27" s="83"/>
+      <c r="W27" s="83"/>
+      <c r="X27" s="83"/>
+      <c r="Y27" s="83"/>
+      <c r="Z27" s="83"/>
+      <c r="AA27" s="34" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="27" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="8"/>
-      <c r="AA27" s="26"/>
     </row>
     <row r="28" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
+      <c r="S28" s="20"/>
       <c r="T28" s="5"/>
       <c r="U28" s="8"/>
       <c r="V28" s="8"/>
@@ -2411,51 +2381,51 @@
       <c r="X28" s="8"/>
       <c r="Y28" s="8"/>
       <c r="Z28" s="8"/>
-      <c r="AA28" s="27"/>
+      <c r="AA28" s="26"/>
     </row>
     <row r="29" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
       <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="6"/>
-      <c r="Z29" s="6"/>
-      <c r="AA29" s="7"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="27"/>
     </row>
     <row r="30" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="9"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
@@ -2474,17 +2444,17 @@
     <row r="31" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="9"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
@@ -2503,17 +2473,17 @@
     <row r="32" spans="1:28" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="9"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
       <c r="N32" s="9"/>
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
@@ -2531,24 +2501,24 @@
     </row>
     <row r="33" spans="1:27" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
       <c r="V33" s="6"/>
@@ -2561,17 +2531,17 @@
     <row r="34" spans="1:27" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="8"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
       <c r="P34" s="8"/>
@@ -2589,166 +2559,197 @@
     </row>
     <row r="35" spans="1:27" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q35" s="36"/>
-      <c r="R35" s="36"/>
-      <c r="S35" s="36"/>
-      <c r="T35" s="36"/>
-      <c r="U35" s="36"/>
-      <c r="V35" s="36"/>
-      <c r="W35" s="36"/>
-      <c r="X35" s="36"/>
-      <c r="Y35" s="36"/>
-      <c r="Z35" s="36"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
       <c r="AA35" s="7"/>
     </row>
     <row r="36" spans="1:27" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="12"/>
-      <c r="T36" s="12"/>
-      <c r="U36" s="11"/>
-      <c r="V36" s="11"/>
-      <c r="W36" s="11"/>
-      <c r="X36" s="11"/>
-      <c r="Y36" s="11"/>
-      <c r="Z36" s="11"/>
-      <c r="AA36" s="28"/>
-    </row>
-    <row r="37" spans="1:27" s="3" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="21"/>
-      <c r="B37" s="76" t="s">
+      <c r="B36" s="5"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="39"/>
+      <c r="S36" s="39"/>
+      <c r="T36" s="39"/>
+      <c r="U36" s="39"/>
+      <c r="V36" s="39"/>
+      <c r="W36" s="39"/>
+      <c r="X36" s="39"/>
+      <c r="Y36" s="39"/>
+      <c r="Z36" s="39"/>
+      <c r="AA36" s="7"/>
+    </row>
+    <row r="37" spans="1:27" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="11"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="28"/>
+    </row>
+    <row r="38" spans="1:27" s="3" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="21"/>
+      <c r="B38" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="76"/>
-      <c r="I37" s="76"/>
-      <c r="J37" s="76"/>
-      <c r="K37" s="76"/>
-      <c r="L37" s="76"/>
-      <c r="M37" s="76"/>
-      <c r="N37" s="76"/>
-      <c r="O37" s="76"/>
-      <c r="P37" s="76"/>
-      <c r="Q37" s="76"/>
-      <c r="R37" s="76"/>
-      <c r="S37" s="76"/>
-      <c r="T37" s="76"/>
-      <c r="U37" s="76"/>
-      <c r="V37" s="76"/>
-      <c r="W37" s="76"/>
-      <c r="X37" s="76"/>
-      <c r="Y37" s="76"/>
-      <c r="Z37" s="76"/>
-      <c r="AA37" s="77"/>
-    </row>
-    <row r="38" spans="1:27" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
-      <c r="V38" s="6"/>
-      <c r="W38" s="6"/>
-      <c r="X38" s="6"/>
-      <c r="Y38" s="6"/>
-      <c r="Z38" s="6"/>
-      <c r="AA38" s="6"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="77"/>
+      <c r="I38" s="77"/>
+      <c r="J38" s="77"/>
+      <c r="K38" s="77"/>
+      <c r="L38" s="77"/>
+      <c r="M38" s="77"/>
+      <c r="N38" s="77"/>
+      <c r="O38" s="77"/>
+      <c r="P38" s="77"/>
+      <c r="Q38" s="77"/>
+      <c r="R38" s="77"/>
+      <c r="S38" s="77"/>
+      <c r="T38" s="77"/>
+      <c r="U38" s="77"/>
+      <c r="V38" s="77"/>
+      <c r="W38" s="77"/>
+      <c r="X38" s="77"/>
+      <c r="Y38" s="77"/>
+      <c r="Z38" s="77"/>
+      <c r="AA38" s="78"/>
+    </row>
+    <row r="39" spans="1:27" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="B37:AA37"/>
-    <mergeCell ref="B8:R8"/>
-    <mergeCell ref="B9:S9"/>
-    <mergeCell ref="B11:R11"/>
-    <mergeCell ref="B12:R12"/>
-    <mergeCell ref="B13:R13"/>
-    <mergeCell ref="B15:R15"/>
-    <mergeCell ref="B25:AA25"/>
-    <mergeCell ref="U26:Z26"/>
+  <mergeCells count="42">
+    <mergeCell ref="B38:AA38"/>
+    <mergeCell ref="C10:S10"/>
+    <mergeCell ref="C11:S11"/>
+    <mergeCell ref="C12:S12"/>
+    <mergeCell ref="B16:R16"/>
+    <mergeCell ref="B26:AA26"/>
+    <mergeCell ref="U27:Z27"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H25:T25"/>
+    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="U16:AA16"/>
+    <mergeCell ref="B17:R20"/>
+    <mergeCell ref="U17:AA20"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="U6:AA6"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="X13:AA13"/>
     <mergeCell ref="U9:W9"/>
+    <mergeCell ref="C4:R6"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="C9:T9"/>
+    <mergeCell ref="C8:S8"/>
+    <mergeCell ref="C28:M36"/>
+    <mergeCell ref="P36:Z36"/>
+    <mergeCell ref="U21:AA21"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:G24"/>
     <mergeCell ref="H24:T24"/>
     <mergeCell ref="U24:W24"/>
     <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="U15:AA15"/>
-    <mergeCell ref="B16:R19"/>
-    <mergeCell ref="U16:AA19"/>
-    <mergeCell ref="U11:W11"/>
-    <mergeCell ref="U6:AA6"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="C4:R6"/>
-    <mergeCell ref="C27:M35"/>
-    <mergeCell ref="P35:Z35"/>
-    <mergeCell ref="U20:AA20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="H23:T23"/>
-    <mergeCell ref="U23:W23"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="H20:R20"/>
     <mergeCell ref="B21:G21"/>
     <mergeCell ref="H21:R21"/>
-    <mergeCell ref="U21:AA21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="H22:R22"/>
+    <mergeCell ref="U22:AA22"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
